--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE362D4E-0216-467D-A3BF-533C1BFE2530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C5085-162F-45A9-95B9-913D27FE66D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -336,6 +336,13 @@
     <rPh sb="0" eb="2">
       <t>ホリュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>~さんこんにちは</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -473,6 +480,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,9 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +859,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -889,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -915,7 +922,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,14 +936,14 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,14 +957,14 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -978,7 +985,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1006,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1027,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1119,7 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1123,7 +1130,9 @@
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
@@ -1132,14 +1141,16 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -1148,7 +1159,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
     </row>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C5085-162F-45A9-95B9-913D27FE66D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED37BF8-3EEC-4047-AC36-B4845BAD15B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -332,17 +332,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保留とする</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>~さんこんにちは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画を立てる</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの状態を見れるページを作る</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家でやること</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビを完成させる</t>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留とする、家でやれ</t>
     <rPh sb="0" eb="2">
       <t>ホリュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>~さんこんにちは</t>
+    <rPh sb="6" eb="7">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/3開始</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/4開始</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +551,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -936,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1004,6 +1070,9 @@
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9"/>
@@ -1120,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1131,7 +1200,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1142,7 +1211,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1150,16 +1219,18 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -1169,12 +1240,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1182,23 +1253,50 @@
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B13:C18 B20:B25">
+  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B13:C18 B20:B25 B27:B29">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>
@@ -1229,7 +1327,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E19:E1048576" xr:uid="{694916BB-CF7F-42DD-9B12-C8AF5B8FC298}">
       <formula1>",高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C19:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C19 C32:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
       <formula1>44256</formula1>
       <formula2>44287</formula2>
     </dataValidation>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED37BF8-3EEC-4047-AC36-B4845BAD15B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F020F5-2BB4-4DB1-A6A3-6AA1C2654EFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -267,20 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハンバーガーメニュー導入</t>
-    <rPh sb="10" eb="12">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリー作成</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今後やること</t>
     <rPh sb="0" eb="2">
       <t>コンゴ</t>
@@ -332,36 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>~さんこんにちは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計画を立てる</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カートの状態を見れるページを作る</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家でやること</t>
     <rPh sb="0" eb="1">
       <t>イエ</t>
@@ -369,33 +325,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ナビを完成させる</t>
-    <rPh sb="3" eb="5">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保留とする、家でやれ</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3/3開始</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3/4開始</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライドショー的なやつ</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -421,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +488,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,10 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -962,7 +910,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -988,7 +936,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,14 +950,14 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1070,12 +1018,9 @@
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1041,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1103,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1172,10 +1117,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1183,24 +1128,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1208,10 +1151,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1219,10 +1162,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1230,60 +1173,55 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="8" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="12" t="s">
-        <v>43</v>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1"/>
@@ -1296,7 +1234,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B13:C18 B20:B25 B27:B29">
+  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B20:B25 B27:B29 B13:C18">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F020F5-2BB4-4DB1-A6A3-6AA1C2654EFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BC025-7486-4467-A2C8-0DBC071D0C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
+    <workbookView xWindow="8850" yWindow="530" windowWidth="10350" windowHeight="7360" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -274,23 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カテゴリー別検索&amp;ページ制作</t>
-    <rPh sb="5" eb="6">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～さんこんにちは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライドショー的な奴</t>
     <rPh sb="7" eb="8">
       <t>テキ</t>
@@ -301,16 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カートの状態を見れるボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フッター改良</t>
     <rPh sb="4" eb="6">
       <t>カイリョウ</t>
@@ -325,16 +298,104 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3/4開始</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライドショー的なやつ</t>
     <rPh sb="7" eb="8">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート空の時&amp;検索引っかからない時のmessage</t>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫&amp;ソールドアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウインド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビ部分を複製</t>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションに商品情報を入れる</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,7 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,10 +549,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1117,7 +1178,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1128,7 +1189,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1140,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1151,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1162,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1173,7 +1234,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1185,56 +1246,108 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="6" t="s">
-        <v>34</v>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="6" t="s">
-        <v>36</v>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="6"/>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="6"/>
+      <c r="B29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B20:B25 B27:B29 B13:C18">
+  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B32:B34 B13:C18 B20:B22 B24:B29">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412BC025-7486-4467-A2C8-0DBC071D0C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DBDA4-224D-4D0E-80A3-C8BC1DD0DBEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="530" windowWidth="10350" windowHeight="7360" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -298,13 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スライドショー的なやつ</t>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>割引</t>
     <rPh sb="0" eb="2">
       <t>ワリビキ</t>
@@ -396,6 +389,16 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入手続き</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,6 +558,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -971,7 +974,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -997,7 +1000,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1021,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,14 +1035,14 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1053,14 +1056,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1084,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1105,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1177,9 +1180,7 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1188,9 +1189,7 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1200,9 +1199,7 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,9 +1208,7 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1222,9 +1217,7 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1233,9 +1226,7 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1258,71 +1249,71 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="13" t="s">
+      <c r="C29" t="s">
         <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1331,10 +1322,14 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1"/>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813DBDA4-224D-4D0E-80A3-C8BC1DD0DBEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33298712-F7D7-4C33-8696-59C9C2F23416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -389,16 +389,6 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入手続き</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テツヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -937,7 +927,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1098,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -1118,7 +1108,9 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4">
+        <v>0.9</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1172,9 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1183,9 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1195,9 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1208,7 +1206,9 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1217,9 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1228,9 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1237,7 +1241,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
@@ -1285,7 +1289,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -1322,14 +1326,10 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1"/>
@@ -1342,7 +1342,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B32:B34 B13:C18 B20:B22 B24:B29">
+  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B32:B34 B20:B22 B24:B29 B13:C18">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33298712-F7D7-4C33-8696-59C9C2F23416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989EA1B-ACD9-46ED-A0D2-B9DAABC704CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -927,7 +927,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1072,6 +1072,9 @@
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12"/>
@@ -1112,7 +1115,10 @@
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1176,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1187,7 +1193,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -1199,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1210,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1221,7 +1227,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1232,7 +1238,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989EA1B-ACD9-46ED-A0D2-B9DAABC704CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84465476-35C0-4478-B73D-3118D9556580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -390,6 +390,55 @@
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入品のテーブルを挿入</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入確認画面にカートの中身を表示</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴画面を改良</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,7 +976,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1004,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1091,10 +1140,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1165,7 +1217,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1179,7 +1231,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1190,7 +1242,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1202,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1213,7 +1265,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1224,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1235,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1303,7 +1355,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -1332,10 +1384,14 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1"/>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84465476-35C0-4478-B73D-3118D9556580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFC158-A0AC-48CF-9D2C-C778D106A5A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひたすらデザイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1053,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1074,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -1095,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1116,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -1394,7 +1398,9 @@
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFC158-A0AC-48CF-9D2C-C778D106A5A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A356CD2-DC79-4897-8317-9C9E35C2AA79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -403,46 +403,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入確認画面にカートの中身を表示</t>
+    <t>ひたすらデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tableを横並び</t>
+    <rPh sb="6" eb="8">
+      <t>ヨコナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ強化(購入画面にてパスワード認証を追加)</t>
+    <rPh sb="6" eb="8">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴画面を改良(やり直し)</t>
     <rPh sb="0" eb="2">
       <t>コウニュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>カクニン</t>
+      <t>リレキ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入履歴画面を改良</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
     <rPh sb="7" eb="9">
       <t>カイリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひたすらデザイン</t>
+    <rPh sb="12" eb="13">
+      <t>ナオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -979,14 +985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
@@ -1057,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1234,22 +1240,18 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -1257,44 +1259,36 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1389,28 +1383,30 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B32:B34 B20:B22 B24:B29 B13:C18">
+  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B20:B22 B24:B29 B13:C18 B32:B33">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A356CD2-DC79-4897-8317-9C9E35C2AA79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E329C-B122-42FF-BB0B-B0E88DFE1EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひたすらデザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tableを横並び</t>
     <rPh sb="6" eb="8">
       <t>ヨコナラ</t>
@@ -450,6 +446,32 @@
       <t>ナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新着商品(idが新しい順に表示)</t>
+    <rPh sb="0" eb="2">
+      <t>シンチャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1262,9 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,9 +1273,11 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -1259,9 +1285,11 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1383,22 +1411,22 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E329C-B122-42FF-BB0B-B0E88DFE1EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68EC5F-EE7A-435E-83CA-6E9F7BA49C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -324,18 +324,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫&amp;ソールドアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーダルウインド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポイント</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -448,30 +437,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新着商品(idが新しい順に表示)</t>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴画面バグ直し</t>
     <rPh sb="0" eb="2">
-      <t>シンチャク</t>
+      <t>コウニュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ショウヒン</t>
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1005,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1085,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1106,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -1127,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1148,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -1172,13 +1155,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1249,7 +1232,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44260</v>
+        <v>44263</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1274,10 +1257,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -1286,17 +1269,19 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1290,9 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1301,9 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1329,7 +1318,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1337,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1345,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1353,80 +1342,64 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="10" t="s">
-        <v>48</v>
+      <c r="B34" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1407,7 @@
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 E19:F1048576 F18 B20:B22 B24:B29 B13:C18 B32:B33">
+  <conditionalFormatting sqref="E1:F11 F18 B20:B22 B30:B31 B24:B28 E19:F1048576 B13:C18">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>
@@ -1445,7 +1418,7 @@
       <formula>"高"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G11 G18:G1048576 D13:D18">
+  <conditionalFormatting sqref="G1:G11 D13:D18 G18:G1048576">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"進行中"</formula>
     </cfRule>
@@ -1465,11 +1438,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E19:E1048576" xr:uid="{694916BB-CF7F-42DD-9B12-C8AF5B8FC298}">
       <formula1>",高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C19 C32:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C19 C30:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
       <formula1>44256</formula1>
       <formula2>44287</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 G18:G1048576 C12:C18" xr:uid="{F6BBE156-5B8B-4BAA-82FB-BD1B74232DA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 C12:C18 G18:G1048576" xr:uid="{F6BBE156-5B8B-4BAA-82FB-BD1B74232DA3}">
       <formula1>",未着手,進行中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68EC5F-EE7A-435E-83CA-6E9F7BA49C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54082AEB-FAD0-47FF-9E10-274990147AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -441,19 +441,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入履歴画面バグ直し</t>
+    <t>今後も追加</t>
     <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナオ</t>
-    </rPh>
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -990,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1249,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1260,19 +1258,21 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1280,10 +1280,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1291,10 +1291,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1302,10 +1302,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54082AEB-FAD0-47FF-9E10-274990147AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8FC9EF-1D05-403F-B48E-3514453275F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -579,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +596,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -988,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1026,7 +1023,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1052,7 +1049,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1070,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1091,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1112,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1136,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1160,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1257,7 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1314,7 +1311,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
@@ -1322,7 +1319,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
@@ -1330,7 +1327,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
@@ -1338,7 +1335,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
@@ -1346,7 +1343,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
@@ -1354,7 +1351,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
@@ -1362,7 +1359,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
@@ -1370,7 +1367,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
@@ -1378,27 +1375,27 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>46</v>
       </c>
     </row>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8FC9EF-1D05-403F-B48E-3514453275F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C07734-7B83-4598-8593-B261758118E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -451,7 +451,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デザイン</t>
+    <t>デザイン&amp;修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -986,7 +989,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1241,10 +1244,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1252,10 +1255,10 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>49</v>
@@ -1269,7 +1272,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1280,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1291,7 +1294,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1302,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1343,7 +1346,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C07734-7B83-4598-8593-B261758118E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5BFE1-F741-4ABC-AEA2-1E9E2C8356EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -392,55 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tableを横並び</t>
-    <rPh sb="6" eb="8">
-      <t>ヨコナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティ強化(購入画面にてパスワード認証を追加)</t>
-    <rPh sb="6" eb="8">
-      <t>キョウカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入履歴画面を改良(やり直し)</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今後も追加</t>
     <rPh sb="0" eb="2">
       <t>コンゴ</t>
@@ -451,11 +402,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デザイン&amp;修正</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>フォーム画面デザイン</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル整理</t>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーについて調べる</t>
+    <rPh sb="8" eb="9">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョブカード作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -988,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1230,7 +1205,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1244,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1255,13 +1230,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1269,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1280,10 +1255,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1291,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1302,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1322,7 +1297,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
@@ -1384,22 +1359,22 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="9" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="9" t="s">
-        <v>46</v>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5BFE1-F741-4ABC-AEA2-1E9E2C8356EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FD3E9-4D7D-47FC-B5EF-9376172E7F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -431,6 +431,17 @@
   </si>
   <si>
     <t>完了</t>
+  </si>
+  <si>
+    <t>awsにhtmlを乗せる</t>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティチェック</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -961,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1017,13 +1028,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1104,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -1128,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1152,10 +1163,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -1374,6 +1385,11 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="8" t="s">
         <v>49</v>
       </c>
     </row>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0FD3E9-4D7D-47FC-B5EF-9376172E7F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D10CA2-6677-4762-B198-B6A39CE03B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -141,9 +141,6 @@
     <t>高</t>
   </si>
   <si>
-    <t>未着手</t>
-  </si>
-  <si>
     <t>フェーズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,9 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進行中</t>
-  </si>
-  <si>
     <t>1時間目</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
@@ -274,23 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スライドショー的な奴</t>
-    <rPh sb="7" eb="8">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヤツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フッター改良</t>
-    <rPh sb="4" eb="6">
-      <t>カイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家でやること</t>
     <rPh sb="0" eb="1">
       <t>イエ</t>
@@ -298,90 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>割引</t>
-    <rPh sb="0" eb="2">
-      <t>ワリビキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カート空の時&amp;検索引っかからない時のmessage</t>
-    <rPh sb="3" eb="4">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダルウインド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナビ部分を複製</t>
-    <rPh sb="2" eb="4">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入履歴</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>低</t>
-    <rPh sb="0" eb="1">
-      <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションに商品情報を入れる</t>
-    <rPh sb="6" eb="8">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>購入品のテーブルを挿入</t>
     <rPh sb="0" eb="3">
       <t>コウニュウヒン</t>
@@ -402,45 +295,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォーム画面デザイン</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル整理</t>
-    <rPh sb="4" eb="6">
-      <t>セイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバーについて調べる</t>
-    <rPh sb="8" eb="9">
-      <t>シラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジョブカード作成</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>セキュリティチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの承認形式を変える</t>
     <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>awsにhtmlを乗せる</t>
-    <rPh sb="9" eb="10">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セキュリティチェック</t>
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ名変更</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就活</t>
+    <rPh sb="0" eb="2">
+      <t>シュウカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放課後</t>
+    <rPh sb="0" eb="3">
+      <t>ホウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードsha1変更</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスーワードsha1変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,18 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,12 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,7 +523,77 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -974,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -990,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1005,15 +986,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>19</v>
+      <c r="A2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1028,17 +1009,17 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,14 +1033,14 @@
         <v>13</v>
       </c>
       <c r="F3" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,14 +1054,14 @@
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1094,14 +1075,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,14 +1099,14 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,14 +1123,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1166,18 +1147,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>44276</v>
@@ -1188,17 +1169,19 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>44284</v>
@@ -1209,17 +1192,19 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
-        <v>44265</v>
+        <v>44272</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
@@ -1227,197 +1212,191 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:F11 F18 B20:B22 B30:B31 B24:B28 E19:F1048576 B13:C18">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+  <conditionalFormatting sqref="E1:F11 F18 B20 B30 E19:F1048576 B13:C18">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"高"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G11 D13:D18 G18:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"進行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C18">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"進行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"低"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"高"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"進行中"</formula>
     </cfRule>
@@ -1429,11 +1408,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E19:E1048576" xr:uid="{694916BB-CF7F-42DD-9B12-C8AF5B8FC298}">
       <formula1>",高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C19 C30:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C30:C1048576" xr:uid="{727CF5FA-098B-4449-B9CE-7E3CE1C2C9B5}">
       <formula1>44256</formula1>
       <formula2>44287</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 C12:C18 G18:G1048576" xr:uid="{F6BBE156-5B8B-4BAA-82FB-BD1B74232DA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G11 C12:C19 G18:G1048576" xr:uid="{F6BBE156-5B8B-4BAA-82FB-BD1B74232DA3}">
       <formula1>",未着手,進行中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/進捗管理表.xlsx
+++ b/進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D10CA2-6677-4762-B198-B6A39CE03B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E1DDD-C16E-4578-A8AA-B1248B561327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EACB491-3C4B-44D0-951E-70C27C9F9EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -371,6 +371,9 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行中</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,46 +528,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -955,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050470B-C5A8-4506-8FCA-042829302A66}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1218,7 +1195,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1229,7 +1206,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
@@ -1243,7 +1220,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1254,7 +1231,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1265,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1276,7 +1253,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1296,7 +1273,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="1"/>
@@ -1359,29 +1336,29 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:F11 F18 B20 B30 E19:F1048576 B13:C18">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"高"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G11 D13:D18 G18:G1048576">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"進行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C18">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"進行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"完了"</formula>
     </cfRule>
   </conditionalFormatting>
